--- a/target/test-classes/file.xlsx
+++ b/target/test-classes/file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bushan.BC\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gracy.priyanka\team-maven-project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BDB02F-2796-4A0A-81CE-B1EB2CFA699E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676882C0-717F-4E34-A0FB-0EC4B15E8E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0633444F-D17E-4021-B568-FF0561E5F6AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0633444F-D17E-4021-B568-FF0561E5F6AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,33 +410,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6480D4D3-04A1-494A-87FF-0F476828B817}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5219</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>243550</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>243551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>166535</v>
       </c>
     </row>
   </sheetData>
